--- a/Melvinraj_test_cast_design_for_redif_account_creation.xlsx
+++ b/Melvinraj_test_cast_design_for_redif_account_creation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melvi\Desktop\hcltraining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAF345D-35C1-4F01-BFC4-8625542B1919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73967E65-2E23-4610-B8E9-AE015DD65EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenario" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="264">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -631,9 +631,6 @@
     <t>10.Enter phone number in the "My Mobile Number" field</t>
   </si>
   <si>
-    <t>10.The Entered should be in the "My Mobile Number" field</t>
-  </si>
-  <si>
     <t>11.Leave the "CAPTCHA" field empty and move to the next field.</t>
   </si>
   <si>
@@ -649,9 +646,6 @@
     <t>13.The Captch code should be changed when refresh</t>
   </si>
   <si>
-    <t>The Captch code should be changed when refresh</t>
-  </si>
-  <si>
     <t xml:space="preserve">14.The captcha code should be equal to the given captcha code </t>
   </si>
   <si>
@@ -667,10 +661,166 @@
     <t>to validate Rediff account creation with field  level inputs for the "Captcha" field.(UNCHECK BOX)</t>
   </si>
   <si>
-    <t>TC_017</t>
-  </si>
-  <si>
-    <t>to validate Rediff account creation with field  level inputs for the "Captcha" field.(CHECK BOX)</t>
+    <t>The name should be displayed in the "Fullname" Field.</t>
+  </si>
+  <si>
+    <t>The rediff id name  should be displayed in the "Rediff ID" field.</t>
+  </si>
+  <si>
+    <t>The entered data should be displayed in "Choose a password" field.</t>
+  </si>
+  <si>
+    <t>6.Selected Gender in the "Gender" field should be displayed.</t>
+  </si>
+  <si>
+    <t>7. Selected country in the "I live in" field should be displayed.</t>
+  </si>
+  <si>
+    <t>8. Selected city in the "City " field should be displayed.</t>
+  </si>
+  <si>
+    <t>9.Entered my recovery email id in the "My recovery email id" field shiuld be displayed</t>
+  </si>
+  <si>
+    <t>10. Selected country code in "My mobile number" field ishould be displayed.</t>
+  </si>
+  <si>
+    <t>Entered captcha should be displayed</t>
+  </si>
+  <si>
+    <t>The message "Account created successfully" should be displayed.</t>
+  </si>
+  <si>
+    <t>Captcha should be displayed.</t>
+  </si>
+  <si>
+    <t>The Selected Date of Birth in the "Date of Birth" field should be displayed</t>
+  </si>
+  <si>
+    <t>The Captcha code should be changed when refresh</t>
+  </si>
+  <si>
+    <t>The captcha code doesn’t change while refresh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entered captcha code is equal to the given captcha code </t>
+  </si>
+  <si>
+    <t>Invalid Captcha message is displayed</t>
+  </si>
+  <si>
+    <t>Entered captcha code is visible in the "Captcha" field</t>
+  </si>
+  <si>
+    <t>The entered data is displayed in the "First name" field.</t>
+  </si>
+  <si>
+    <t>The entered data is displayed in the "Enter Rediff ID" field.</t>
+  </si>
+  <si>
+    <t>The entered data is displayed in the "Enter password" field.</t>
+  </si>
+  <si>
+    <t>The entered password is displayed in the "Retype password" filed</t>
+  </si>
+  <si>
+    <t>The selected data is displayed in the "Date of birth" field.</t>
+  </si>
+  <si>
+    <t>The selected data is displayed in the "Gender" field.</t>
+  </si>
+  <si>
+    <t>The selected data is displayed in the "Country" field.</t>
+  </si>
+  <si>
+    <t>The selected data is displayed in the "City" field.</t>
+  </si>
+  <si>
+    <t>The entered data is displayed in the "Enter recovery mail" field</t>
+  </si>
+  <si>
+    <t>10.The Entered data is displayed in the "My Mobile Number" field</t>
+  </si>
+  <si>
+    <t>10.The Entered data should be in the "My Mobile Number" field</t>
+  </si>
+  <si>
+    <t>The error message "The captcha code cannot be blank" is displayed.</t>
+  </si>
+  <si>
+    <t>11. "Invalid number " message should be displayed.</t>
+  </si>
+  <si>
+    <t>The rediff id name  is displayed in the "Rediff ID" field.</t>
+  </si>
+  <si>
+    <t>Captcha is displayed.</t>
+  </si>
+  <si>
+    <t>The rediff id name shpuld be displayed in the "Rediff ID" field.</t>
+  </si>
+  <si>
+    <t>11.entered mobile number in "My mobile number" field should be displayed.</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>MELVINRAJ</t>
+  </si>
+  <si>
+    <t>YET TO REVIEW</t>
+  </si>
+  <si>
+    <t>DEF_001</t>
+  </si>
+  <si>
+    <t>DEF_002</t>
+  </si>
+  <si>
+    <t>REQ_001</t>
+  </si>
+  <si>
+    <t>COVERED</t>
+  </si>
+  <si>
+    <t>REQ_002</t>
+  </si>
+  <si>
+    <t>REQ_003</t>
+  </si>
+  <si>
+    <t>REQ_004</t>
+  </si>
+  <si>
+    <t>REQ_005</t>
+  </si>
+  <si>
+    <t>REQ_006</t>
+  </si>
+  <si>
+    <t>REQ_007</t>
+  </si>
+  <si>
+    <t>REQ_008</t>
+  </si>
+  <si>
+    <t>REQ_009</t>
+  </si>
+  <si>
+    <t>REQ_010</t>
+  </si>
+  <si>
+    <t>REQ_011</t>
+  </si>
+  <si>
+    <t>REQ_012</t>
+  </si>
+  <si>
+    <t>NOT-COVERED</t>
   </si>
 </sst>
 </file>
@@ -734,7 +884,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -768,6 +918,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAC6404"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,7 +1101,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -978,9 +1140,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1053,9 +1212,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1127,13 +1283,64 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFAC6404"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1410,8 +1617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1739,36 +1946,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="54"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
     </row>
     <row r="3" spans="1:5" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
     </row>
     <row r="4" spans="1:5" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="61"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1788,7 +1995,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="2">
-        <v>45688</v>
+        <v>46053</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1806,7 +2013,7 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="31"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>7</v>
@@ -1915,21 +2122,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q187"/>
+  <dimension ref="A1:Q171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E188" sqref="E188"/>
+    <sheetView topLeftCell="A150" zoomScale="77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E148" sqref="E148:H162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.44140625" customWidth="1"/>
     <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13" style="33" customWidth="1"/>
+    <col min="3" max="3" width="13" style="32" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="25.77734375" style="39" customWidth="1"/>
+    <col min="5" max="5" width="25.77734375" style="38" customWidth="1"/>
     <col min="6" max="6" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.77734375" style="39" customWidth="1"/>
+    <col min="7" max="7" width="29.77734375" style="38" customWidth="1"/>
     <col min="8" max="8" width="28.21875" customWidth="1"/>
     <col min="9" max="9" width="27.77734375" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
@@ -2886,60 +3093,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:12" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="B3" s="58"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
     </row>
     <row r="4" spans="1:12" ht="25.8" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="36" t="s">
+      <c r="C4" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="59"/>
+      <c r="E4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>45986</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>46052</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>246</v>
+      </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="12" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
@@ -2947,2532 +3166,3313 @@
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="35" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+    <row r="8" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E8" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G8" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H8" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K8" s="14" t="s">
         <v>31</v>
       </c>
     </row>
+    <row r="9" spans="1:12" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="31">
+        <v>1</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="9"/>
+    </row>
     <row r="10" spans="1:12" s="9" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="32">
-        <v>1</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="10"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="I10" s="67" t="s">
+        <v>245</v>
+      </c>
       <c r="J10" s="10"/>
-      <c r="L10" s="30"/>
-    </row>
-    <row r="11" spans="1:12" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="L10" s="29"/>
+    </row>
+    <row r="11" spans="1:12" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
-      <c r="C11" s="32"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="10"/>
+      <c r="E11" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="67" t="s">
+        <v>245</v>
+      </c>
       <c r="J11" s="10"/>
-      <c r="L11" s="30"/>
-    </row>
-    <row r="12" spans="1:12" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="35" t="s">
+      <c r="L11" s="29"/>
+    </row>
+    <row r="12" spans="1:12" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="H12" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="L12" s="30"/>
-    </row>
-    <row r="13" spans="1:12" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="L13" s="30"/>
+      <c r="I12" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="L12" s="29"/>
+    </row>
+    <row r="13" spans="1:12" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="L13" s="29"/>
     </row>
     <row r="14" spans="1:12" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
-      <c r="C14" s="32"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="L14" s="30"/>
+      <c r="E14" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="L14" s="29"/>
     </row>
     <row r="15" spans="1:12" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="32"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="L15" s="30"/>
+      <c r="E15" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="L15" s="29"/>
     </row>
     <row r="16" spans="1:12" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
-      <c r="C16" s="32"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="L16" s="30"/>
-    </row>
-    <row r="17" spans="1:12" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="20" t="s">
+      <c r="E16" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F16" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G16" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="H16" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="L17" s="30"/>
-    </row>
-    <row r="18" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I16" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="L16" s="29"/>
+    </row>
+    <row r="17" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="I17" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="L17" s="29"/>
+    </row>
+    <row r="18" spans="1:12" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="17"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="10"/>
       <c r="E18" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="L18" s="30"/>
-    </row>
-    <row r="19" spans="1:12" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F18" s="34">
         <v>91</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G18" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="H18" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="L19" s="30"/>
+      <c r="I18" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="L18" s="29"/>
+    </row>
+    <row r="19" spans="1:12" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="16">
+        <v>7010894262</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="L19" s="29"/>
     </row>
     <row r="20" spans="1:12" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
-      <c r="C20" s="32"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="13"/>
-      <c r="E20" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="17">
-        <v>7010894262</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="L20" s="30"/>
-    </row>
-    <row r="21" spans="1:12" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="E20" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="I20" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="L20" s="29"/>
+    </row>
+    <row r="21" spans="1:12" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="32"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="13"/>
-      <c r="E21" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="L21" s="30"/>
+      <c r="E21" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="I21" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="L21" s="29"/>
     </row>
     <row r="22" spans="1:12" s="9" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
-      <c r="C22" s="32"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="13"/>
-      <c r="E22" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="L22" s="30"/>
-    </row>
-    <row r="23" spans="1:12" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="20" t="s">
+      <c r="E22" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F22" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="20" t="s">
+      <c r="G22" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="H22" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="L23" s="30"/>
+      <c r="I22" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="L22" s="29"/>
+    </row>
+    <row r="23" spans="1:12" s="9" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="31">
+        <v>1</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="I23" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="L23" s="29"/>
     </row>
     <row r="24" spans="1:12" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="13"/>
-      <c r="C24" s="17"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="13"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="20"/>
-      <c r="L24" s="30"/>
-    </row>
-    <row r="25" spans="1:12" s="9" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="32">
-        <v>1</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="L25" s="30"/>
+      <c r="E24" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="L24" s="29"/>
+    </row>
+    <row r="25" spans="1:12" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I25" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="L25" s="29"/>
     </row>
     <row r="26" spans="1:12" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="L26" s="30"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I26" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="L26" s="29"/>
     </row>
     <row r="27" spans="1:12" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
-      <c r="C27" s="32"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="13"/>
-      <c r="E27" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="L27" s="30"/>
+      <c r="E27" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="I27" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="L27" s="29"/>
     </row>
     <row r="28" spans="1:12" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="L28" s="30"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="I28" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="L28" s="29"/>
     </row>
     <row r="29" spans="1:12" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
-      <c r="C29" s="32"/>
+      <c r="C29" s="31"/>
       <c r="D29" s="13"/>
-      <c r="E29" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="L29" s="30"/>
+      <c r="E29" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="I29" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="L29" s="29"/>
     </row>
     <row r="30" spans="1:12" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
-      <c r="C30" s="32"/>
+      <c r="C30" s="31"/>
       <c r="D30" s="13"/>
-      <c r="E30" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="L30" s="30"/>
-    </row>
-    <row r="31" spans="1:12" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="L31" s="30"/>
-    </row>
-    <row r="32" spans="1:12" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="20" t="s">
+      <c r="E30" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F30" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="G32" s="20" t="s">
+      <c r="G30" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="L32" s="30"/>
+      <c r="H30" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="I30" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="L30" s="29"/>
+    </row>
+    <row r="31" spans="1:12" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G31" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="H31" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="I31" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="L31" s="29"/>
+    </row>
+    <row r="32" spans="1:12" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" t="s">
+        <v>104</v>
+      </c>
+      <c r="G32" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="H32" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="I32" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="L32" s="29"/>
     </row>
     <row r="33" spans="1:12" s="9" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="43" t="s">
-        <v>96</v>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="38" t="s">
+        <v>98</v>
       </c>
       <c r="F33" t="s">
-        <v>76</v>
-      </c>
-      <c r="G33" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="L33" s="30"/>
-    </row>
-    <row r="34" spans="1:12" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="F34" t="s">
-        <v>104</v>
-      </c>
-      <c r="G34" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="L34" s="30"/>
-    </row>
-    <row r="35" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="G33" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="H33" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="I33" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="L33" s="29"/>
+    </row>
+    <row r="34" spans="1:12" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" s="34">
+        <v>91</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="H34" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="I34" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="L34" s="29"/>
+    </row>
+    <row r="35" spans="1:12" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
-      <c r="C35" s="32"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="13"/>
-      <c r="E35" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="F35" t="s">
-        <v>105</v>
-      </c>
-      <c r="G35" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="I35" s="9"/>
+      <c r="E35" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" s="16">
+        <v>7010894262</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="H35" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="I35" s="67" t="s">
+        <v>245</v>
+      </c>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
     </row>
     <row r="36" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
-      <c r="C36" s="32"/>
+      <c r="C36" s="31"/>
       <c r="D36" s="13"/>
-      <c r="E36" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F36" s="35">
-        <v>91</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="I36" s="9"/>
+      <c r="E36" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F36" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="I36" s="67" t="s">
+        <v>245</v>
+      </c>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
     </row>
-    <row r="37" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
-      <c r="C37" s="32"/>
+      <c r="C37" s="31"/>
       <c r="D37" s="13"/>
-      <c r="E37" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="F37" s="17">
-        <v>7010894262</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="I37" s="9"/>
+      <c r="E37" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F37" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="I37" s="67" t="s">
+        <v>245</v>
+      </c>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
     </row>
     <row r="38" spans="1:12" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
-      <c r="C38" s="32"/>
+      <c r="C38" s="31"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="F38" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="G38" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="L38" s="30"/>
-    </row>
-    <row r="39" spans="1:12" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="F39" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="G39" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
+      <c r="E38" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="H38" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="I38" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="L38" s="29"/>
+    </row>
+    <row r="39" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+      <c r="A39" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="31">
+        <v>1</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="H39" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="I39" s="67" t="s">
+        <v>245</v>
+      </c>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
     </row>
     <row r="40" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="13"/>
+      <c r="A40" s="10"/>
       <c r="B40" s="13"/>
-      <c r="C40" s="32"/>
+      <c r="C40" s="16"/>
       <c r="D40" s="13"/>
-      <c r="E40" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G40" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
+      <c r="E40" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I40" s="67" t="s">
+        <v>245</v>
+      </c>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
-      <c r="C41" s="32"/>
+      <c r="C41" s="31"/>
       <c r="D41" s="13"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
+      <c r="E41" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F41" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I41" s="67" t="s">
+        <v>245</v>
+      </c>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
     </row>
-    <row r="42" spans="1:12" ht="66" x14ac:dyDescent="0.3">
-      <c r="A42" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C42" s="32">
-        <v>1</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E42" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G42" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
+    <row r="42" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F42" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I42" s="67" t="s">
+        <v>245</v>
+      </c>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
     </row>
     <row r="43" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="G43" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H43" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="I43" s="67" t="s">
+        <v>245</v>
+      </c>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
     </row>
     <row r="44" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
-      <c r="C44" s="32"/>
+      <c r="C44" s="31"/>
       <c r="D44" s="13"/>
-      <c r="E44" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="F44" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="G44" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
+      <c r="E44" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F44" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="H44" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="I44" s="67" t="s">
+        <v>245</v>
+      </c>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
     </row>
     <row r="45" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
-      <c r="C45" s="32"/>
+      <c r="C45" s="31"/>
       <c r="D45" s="13"/>
-      <c r="E45" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F45" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="G45" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
+      <c r="E45" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="I45" s="67" t="s">
+        <v>245</v>
+      </c>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
     </row>
     <row r="46" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
-      <c r="C46" s="17"/>
+      <c r="C46" s="16"/>
       <c r="D46" s="10"/>
-      <c r="E46" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="F46" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="G46" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
+      <c r="E46" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G46" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="H46" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="I46" s="67" t="s">
+        <v>245</v>
+      </c>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
     </row>
-    <row r="47" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="13"/>
       <c r="B47" s="13"/>
-      <c r="C47" s="32"/>
+      <c r="C47" s="31"/>
       <c r="D47" s="13"/>
-      <c r="E47" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F47" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="G47" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
+      <c r="E47" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F47" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I47" s="67" t="s">
+        <v>245</v>
+      </c>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
     </row>
-    <row r="48" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F48" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="G48" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
+    <row r="48" spans="1:12" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F48" s="34">
+        <v>91</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="H48" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="I48" s="67" t="s">
+        <v>245</v>
+      </c>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
     </row>
-    <row r="49" spans="1:17" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F49" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="G49" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
+    <row r="49" spans="1:17" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F49" s="16">
+        <v>7010894262</v>
+      </c>
+      <c r="G49" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="H49" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="I49" s="67" t="s">
+        <v>245</v>
+      </c>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F50" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="H50" s="41"/>
-      <c r="I50" s="9"/>
+    <row r="50" spans="1:17" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F50" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="G50" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="H50" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="I50" s="67" t="s">
+        <v>245</v>
+      </c>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
     </row>
-    <row r="51" spans="1:17" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F51" s="35">
+    <row r="51" spans="1:17" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="G51" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
+      <c r="G51" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H51" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="I51" s="67" t="s">
+        <v>245</v>
+      </c>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
     </row>
     <row r="52" spans="1:17" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A52" s="13"/>
+      <c r="A52" s="10"/>
       <c r="B52" s="13"/>
-      <c r="C52" s="32"/>
+      <c r="C52" s="16"/>
       <c r="D52" s="13"/>
-      <c r="E52" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F52" s="17">
-        <v>7010894262</v>
-      </c>
-      <c r="G52" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
+      <c r="E52" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G52" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H52" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I52" s="67" t="s">
+        <v>245</v>
+      </c>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
     </row>
     <row r="53" spans="1:17" s="9" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="F53" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="G53" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="L53" s="30"/>
-      <c r="P53" s="47"/>
+      <c r="A53" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" s="31">
+        <v>1</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="H53" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="I53" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="L53" s="29"/>
+      <c r="P53" s="45"/>
       <c r="Q53"/>
     </row>
     <row r="54" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
-      <c r="C54" s="32"/>
+      <c r="C54" s="31"/>
       <c r="D54" s="13"/>
-      <c r="E54" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F54" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="G54" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
+      <c r="E54" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G54" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H54" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I54" s="67" t="s">
+        <v>245</v>
+      </c>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
-      <c r="L54" s="34"/>
+      <c r="L54" s="33"/>
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A55" s="10"/>
+      <c r="A55" s="13"/>
       <c r="B55" s="13"/>
-      <c r="C55" s="17"/>
+      <c r="C55" s="31"/>
       <c r="D55" s="13"/>
-      <c r="E55" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F55" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G55" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
+      <c r="E55" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F55" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G55" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H55" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I55" s="67" t="s">
+        <v>245</v>
+      </c>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
+    <row r="56" spans="1:17" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F56" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G56" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H56" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I56" s="67" t="s">
+        <v>245</v>
+      </c>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
     </row>
-    <row r="57" spans="1:17" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C57" s="32">
-        <v>1</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E57" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F57" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G57" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
+    <row r="57" spans="1:17" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F57" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="G57" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H57" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="I57" s="67" t="s">
+        <v>245</v>
+      </c>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
     </row>
     <row r="58" spans="1:17" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A58" s="13"/>
       <c r="B58" s="13"/>
-      <c r="C58" s="32"/>
+      <c r="C58" s="31"/>
       <c r="D58" s="13"/>
-      <c r="E58" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="F58" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="G58" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
+      <c r="E58" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F58" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="G58" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="H58" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="I58" s="67" t="s">
+        <v>245</v>
+      </c>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
     </row>
     <row r="59" spans="1:17" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A59" s="13"/>
       <c r="B59" s="13"/>
-      <c r="C59" s="32"/>
+      <c r="C59" s="31"/>
       <c r="D59" s="13"/>
-      <c r="E59" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="F59" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="G59" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
+      <c r="E59" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G59" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="H59" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="I59" s="67" t="s">
+        <v>245</v>
+      </c>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
     </row>
     <row r="60" spans="1:17" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F60" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="G60" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
+      <c r="A60" s="13"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G60" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="H60" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="I60" s="67" t="s">
+        <v>245</v>
+      </c>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
     </row>
-    <row r="61" spans="1:17" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A61" s="13"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="F61" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="G61" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
+    <row r="61" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="F61" t="s">
+        <v>76</v>
+      </c>
+      <c r="G61" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="H61" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="I61" s="67" t="s">
+        <v>245</v>
+      </c>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
     </row>
-    <row r="62" spans="1:17" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A62" s="13"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F62" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="G62" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
+    <row r="62" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="F62" t="s">
+        <v>104</v>
+      </c>
+      <c r="G62" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="H62" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="I62" s="67" t="s">
+        <v>245</v>
+      </c>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
     </row>
-    <row r="63" spans="1:17" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
-      <c r="C63" s="32"/>
+      <c r="C63" s="31"/>
       <c r="D63" s="13"/>
-      <c r="E63" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F63" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="G63" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
+      <c r="E63" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="F63" t="s">
+        <v>105</v>
+      </c>
+      <c r="G63" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="H63" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="I63" s="67" t="s">
+        <v>245</v>
+      </c>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
     </row>
-    <row r="64" spans="1:17" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
-      <c r="C64" s="32"/>
+      <c r="C64" s="31"/>
       <c r="D64" s="13"/>
-      <c r="E64" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F64" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="G64" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
+      <c r="E64" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F64" s="34">
+        <v>91</v>
+      </c>
+      <c r="G64" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="H64" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="I64" s="67" t="s">
+        <v>245</v>
+      </c>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
     </row>
     <row r="65" spans="1:12" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="10"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="F65" t="s">
-        <v>76</v>
-      </c>
-      <c r="G65" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="L65" s="30"/>
-    </row>
-    <row r="66" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="10"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="F66" t="s">
-        <v>104</v>
-      </c>
-      <c r="G66" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
+      <c r="A65" s="13"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F65" s="16">
+        <v>7010894262</v>
+      </c>
+      <c r="G65" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="H65" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="I65" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="L65" s="29"/>
+    </row>
+    <row r="66" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A66" s="13"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F66" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="G66" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="H66" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="I66" s="67" t="s">
+        <v>245</v>
+      </c>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
     </row>
-    <row r="67" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A67" s="13"/>
       <c r="B67" s="13"/>
-      <c r="C67" s="32"/>
+      <c r="C67" s="31"/>
       <c r="D67" s="13"/>
-      <c r="E67" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="F67" t="s">
-        <v>105</v>
-      </c>
-      <c r="G67" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="9"/>
+      <c r="E67" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F67" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="G67" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H67" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="I67" s="67" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="68" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A68" s="13"/>
       <c r="B68" s="13"/>
-      <c r="C68" s="32"/>
+      <c r="C68" s="31"/>
       <c r="D68" s="13"/>
-      <c r="E68" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F68" s="35">
-        <v>91</v>
-      </c>
-      <c r="G68" s="20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A69" s="13"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="32"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="F69" s="17">
-        <v>7010894262</v>
-      </c>
-      <c r="G69" s="20" t="s">
-        <v>112</v>
+      <c r="E68" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G68" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H68" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I68" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>118</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C69" s="31">
+        <v>2</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="F69" s="16"/>
+      <c r="G69" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="H69" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="I69" s="67" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A70" s="13"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="32"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="F70" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="G70" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="13"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="F71" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="G71" s="20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A72" s="13"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="F72" s="17" t="s">
+      <c r="E70" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G70" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="H70" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="I70" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E71" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="F71" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="G71" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="H71" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="I71" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>127</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C72" s="32">
+        <v>3</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E72" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G72" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="H72" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="I72" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+      <c r="E73" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="F73" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="G73" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="H73" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="I73" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="E74" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="F74" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="G74" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="H74" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="I74" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>135</v>
+      </c>
+      <c r="B75" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C75" s="32">
+        <v>4</v>
+      </c>
+      <c r="D75" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="E75" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G75" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="H75" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="I75" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+      <c r="E76" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="F76" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="G76" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="H76" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="I76" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E77" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="F77" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="G77" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="H77" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="I77" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E78" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="F78" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="G78" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H78" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I78" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>141</v>
+      </c>
+      <c r="B79" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="C79" s="32">
+        <v>5</v>
+      </c>
+      <c r="D79" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="E79" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F79" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G79" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="H79" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="I79" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+      <c r="E80" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="F80" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="G80" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="H80" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="I80" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E81" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="F81" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="G81" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H81" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I81" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E82" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="F82" t="s">
+        <v>144</v>
+      </c>
+      <c r="G82" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="H82" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="I82" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="E83" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="F83" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G83" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="H83" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="I83" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>148</v>
+      </c>
+      <c r="B84" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="C84" s="32">
+        <v>6</v>
+      </c>
+      <c r="D84" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="E84" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F84" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G84" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="H84" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="I84" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="E85" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="F85" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="G85" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="H85" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="I85" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E86" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="F86" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="G86" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H86" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I86" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="E87" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F87" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G87" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="H87" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="I87" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="E88" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="F88" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="G72" s="20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>118</v>
-      </c>
-      <c r="B74" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C74" s="32">
-        <v>2</v>
-      </c>
-      <c r="D74" s="13" t="s">
+      <c r="G88" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="H88" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="I88" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="E89" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F89" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G89" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="H89" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="I89" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="E90" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="F90" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G90" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="H90" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="I90" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A91" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B91" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="C91" s="31">
+        <v>7</v>
+      </c>
+      <c r="D91" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E74" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="F74" s="17"/>
-      <c r="G74" s="20" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="E75" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="F75" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="G75" s="20" t="s">
+      <c r="E91" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F91" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G91" s="19" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E76" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="F76" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="G76" s="39" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>127</v>
-      </c>
-      <c r="B78" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C78" s="33">
-        <v>3</v>
-      </c>
-      <c r="D78" s="13" t="s">
+      <c r="H91" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="I91" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A92" s="13"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F92" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G92" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H92" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I92" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A93" s="13"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F93" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G93" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H93" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I93" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A94" s="10"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F94" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G94" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H94" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I94" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A95" s="13"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="31"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F95" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="G95" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H95" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="I95" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="13"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F96" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="G96" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="H96" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="I96" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A97" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B97" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="C97" s="31">
+        <v>8</v>
+      </c>
+      <c r="D97" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E78" s="20" t="s">
+      <c r="E97" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="F78" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="G78" s="20" t="s">
+      <c r="F97" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G97" s="19" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" ht="27" x14ac:dyDescent="0.3">
-      <c r="E79" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="F79" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="G79" s="20" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="40.200000000000003" x14ac:dyDescent="0.3">
-      <c r="E80" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="F80" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="G80" s="44" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>135</v>
-      </c>
-      <c r="B82" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="C82" s="33">
-        <v>4</v>
-      </c>
-      <c r="D82" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="E82" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F82" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G82" s="49" t="s">
+      <c r="H97" s="19" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" ht="27" x14ac:dyDescent="0.3">
-      <c r="E83" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="F83" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="G83" s="50" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E84" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="F84" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="G84" s="39" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E85" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="F85" s="46" t="s">
+      <c r="I97" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A98" s="13"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F98" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G98" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H98" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I98" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A99" s="13"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="31"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F99" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="G85" s="20" t="s">
+      <c r="G99" s="19" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>141</v>
-      </c>
-      <c r="B87" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="C87" s="33">
-        <v>5</v>
-      </c>
-      <c r="D87" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="E87" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F87" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G87" s="49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="27" x14ac:dyDescent="0.3">
-      <c r="E88" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="F88" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="G88" s="50" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E89" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="F89" s="46" t="s">
+      <c r="H99" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I99" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A100" s="10"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F100" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="G89" s="20" t="s">
+      <c r="G100" s="19" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E90" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="F90" t="s">
-        <v>144</v>
-      </c>
-      <c r="G90" s="39" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="E91" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="F91" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="G91" s="20" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>148</v>
-      </c>
-      <c r="B93" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="C93" s="33">
-        <v>6</v>
-      </c>
-      <c r="D93" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="E93" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F93" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G93" s="49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="27" x14ac:dyDescent="0.3">
-      <c r="E94" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="F94" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="G94" s="50" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E95" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="F95" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="G95" s="20" t="s">
+      <c r="H100" s="19" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="E96" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F96" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="G96" s="20" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="E97" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="F97" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G97" s="20" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="E98" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="F98" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G98" s="38" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="E99" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="F99" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G99" s="20" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A101" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="B101" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="C101" s="32">
-        <v>7</v>
-      </c>
-      <c r="D101" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E101" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F101" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G101" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="I100" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A101" s="13"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="31"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F101" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="G101" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H101" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="I101" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A102" s="13"/>
       <c r="B102" s="13"/>
-      <c r="C102" s="32"/>
+      <c r="C102" s="31"/>
       <c r="D102" s="13"/>
-      <c r="E102" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="F102" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="G102" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A103" s="13"/>
-      <c r="B103" s="13"/>
-      <c r="C103" s="32"/>
-      <c r="D103" s="13"/>
-      <c r="E103" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="F103" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="G103" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A104" s="10"/>
-      <c r="B104" s="10"/>
-      <c r="C104" s="17"/>
-      <c r="D104" s="10"/>
-      <c r="E104" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F104" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="G104" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="E102" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F102" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="G102" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="H102" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="I102" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="E103" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F103" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G103" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="H103" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="I103" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A104" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B104" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="C104" s="31">
+        <v>9</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E104" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F104" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G104" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="H104" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="I104" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A105" s="13"/>
       <c r="B105" s="13"/>
-      <c r="C105" s="32"/>
+      <c r="C105" s="31"/>
       <c r="D105" s="13"/>
-      <c r="E105" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="F105" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="G105" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="E105" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F105" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G105" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H105" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I105" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A106" s="13"/>
       <c r="B106" s="13"/>
-      <c r="C106" s="32"/>
+      <c r="C106" s="31"/>
       <c r="D106" s="13"/>
-      <c r="E106" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="F106" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="G106" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A108" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B108" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="C108" s="32">
-        <v>8</v>
-      </c>
-      <c r="D108" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E108" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F108" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G108" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="E106" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F106" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G106" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H106" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I106" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A107" s="10"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F107" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G107" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H107" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I107" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A108" s="13"/>
+      <c r="B108" s="13"/>
+      <c r="C108" s="31"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F108" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="G108" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H108" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="I108" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A109" s="13"/>
       <c r="B109" s="13"/>
-      <c r="C109" s="32"/>
+      <c r="C109" s="31"/>
       <c r="D109" s="13"/>
-      <c r="E109" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="F109" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="G109" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A110" s="13"/>
-      <c r="B110" s="13"/>
-      <c r="C110" s="32"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="F110" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="G110" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A111" s="10"/>
-      <c r="B111" s="10"/>
-      <c r="C111" s="17"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F111" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="G111" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A112" s="13"/>
-      <c r="B112" s="13"/>
-      <c r="C112" s="32"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="F112" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="G112" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="E109" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F109" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="G109" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="H109" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="I109" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="E110" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F110" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G110" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="H110" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="I110" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="E111" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="F111" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G111" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="H111" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="I111" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="A112" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B112" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="C112" s="31">
+        <v>9</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E112" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F112" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G112" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="H112" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="I112" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A113" s="13"/>
       <c r="B113" s="13"/>
-      <c r="C113" s="32"/>
+      <c r="C113" s="31"/>
       <c r="D113" s="13"/>
-      <c r="E113" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="F113" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="G113" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="E114" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="F114" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="G114" s="20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A116" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="B116" s="48" t="s">
-        <v>163</v>
-      </c>
-      <c r="C116" s="32">
-        <v>9</v>
-      </c>
-      <c r="D116" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E116" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F116" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G116" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="E113" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F113" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G113" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H113" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I113" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A114" s="13"/>
+      <c r="B114" s="13"/>
+      <c r="C114" s="31"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F114" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G114" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H114" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I114" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A115" s="10"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F115" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G115" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H115" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I115" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A116" s="13"/>
+      <c r="B116" s="13"/>
+      <c r="C116" s="31"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F116" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="G116" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H116" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="I116" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A117" s="13"/>
       <c r="B117" s="13"/>
-      <c r="C117" s="32"/>
+      <c r="C117" s="31"/>
       <c r="D117" s="13"/>
-      <c r="E117" s="20" t="s">
+      <c r="E117" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F117" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="G117" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="H117" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="I117" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="E118" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F118" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G118" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="H118" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="I118" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="E119" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="F119" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G119" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="H119" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="I119" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E120" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F120" t="s">
+        <v>167</v>
+      </c>
+      <c r="G120" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="H120" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="I120" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E121" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F121" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="G121" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="H121" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="I121" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>171</v>
+      </c>
+      <c r="B122" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="C122" s="31">
+        <v>10</v>
+      </c>
+      <c r="D122" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E122" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F122" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G122" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="H122" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="I122" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B123" s="13"/>
+      <c r="C123" s="31"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="F117" s="17" t="s">
+      <c r="F123" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="G117" s="20" t="s">
+      <c r="G123" s="19" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A118" s="13"/>
-      <c r="B118" s="13"/>
-      <c r="C118" s="32"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="20" t="s">
+      <c r="H123" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I123" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B124" s="13"/>
+      <c r="C124" s="31"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F118" s="35" t="s">
+      <c r="F124" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="G118" s="20" t="s">
+      <c r="G124" s="19" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A119" s="10"/>
-      <c r="B119" s="10"/>
-      <c r="C119" s="17"/>
-      <c r="D119" s="10"/>
-      <c r="E119" s="20" t="s">
+      <c r="H124" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I124" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B125" s="10"/>
+      <c r="C125" s="16"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F119" s="34" t="s">
+      <c r="F125" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="G119" s="20" t="s">
+      <c r="G125" s="19" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A120" s="13"/>
-      <c r="B120" s="13"/>
-      <c r="C120" s="32"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="20" t="s">
+      <c r="H125" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I125" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B126" s="13"/>
+      <c r="C126" s="31"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="F120" s="40" t="s">
+      <c r="F126" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="G120" s="20" t="s">
+      <c r="G126" s="19" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A121" s="13"/>
-      <c r="B121" s="13"/>
-      <c r="C121" s="32"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="20" t="s">
+      <c r="H126" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="I126" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="B127" s="13"/>
+      <c r="C127" s="31"/>
+      <c r="D127" s="13"/>
+      <c r="E127" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="F121" s="40" t="s">
+      <c r="F127" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="G121" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="E122" s="20" t="s">
+      <c r="G127" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="H127" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="I127" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="E128" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="F122" s="17" t="s">
+      <c r="F128" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="G122" s="20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="E123" s="20" t="s">
+      <c r="G128" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="H128" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="I128" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="E129" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="F123" s="17" t="s">
+      <c r="F129" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="G123" s="20" t="s">
+      <c r="G129" s="19" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="A125" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="B125" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="C125" s="32">
-        <v>9</v>
-      </c>
-      <c r="D125" s="13" t="s">
+      <c r="H129" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="I129" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E130" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F130" t="s">
+        <v>167</v>
+      </c>
+      <c r="G130" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="H130" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="I130" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E131" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F131" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="G131" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="H131" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="I131" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="E132" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F132" s="34">
+        <v>91</v>
+      </c>
+      <c r="G132" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="H132" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="I132" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="E133" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="F133" s="16">
+        <v>70108942</v>
+      </c>
+      <c r="G133" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="H133" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="I133" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="E134" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="F134" s="16">
+        <v>7010894262</v>
+      </c>
+      <c r="G134" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="H134" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="I134" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>176</v>
+      </c>
+      <c r="B135" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="C135" s="31">
+        <v>10</v>
+      </c>
+      <c r="D135" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E125" s="20" t="s">
+      <c r="E135" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="F125" s="17" t="s">
+      <c r="F135" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="G125" s="20" t="s">
+      <c r="G135" s="19" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A126" s="13"/>
-      <c r="B126" s="13"/>
-      <c r="C126" s="32"/>
-      <c r="D126" s="13"/>
-      <c r="E126" s="20" t="s">
+      <c r="H135" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="I135" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B136" s="13"/>
+      <c r="C136" s="31"/>
+      <c r="D136" s="13"/>
+      <c r="E136" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="F126" s="17" t="s">
+      <c r="F136" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="G126" s="20" t="s">
+      <c r="G136" s="19" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A127" s="13"/>
-      <c r="B127" s="13"/>
-      <c r="C127" s="32"/>
-      <c r="D127" s="13"/>
-      <c r="E127" s="20" t="s">
+      <c r="H136" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="I136" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B137" s="13"/>
+      <c r="C137" s="31"/>
+      <c r="D137" s="13"/>
+      <c r="E137" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F127" s="35" t="s">
+      <c r="F137" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="G127" s="20" t="s">
+      <c r="G137" s="19" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A128" s="10"/>
-      <c r="B128" s="10"/>
-      <c r="C128" s="17"/>
-      <c r="D128" s="10"/>
-      <c r="E128" s="20" t="s">
+      <c r="H137" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="I137" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B138" s="10"/>
+      <c r="C138" s="16"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F128" s="34" t="s">
+      <c r="F138" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="G128" s="20" t="s">
+      <c r="G138" s="19" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A129" s="13"/>
-      <c r="B129" s="13"/>
-      <c r="C129" s="32"/>
-      <c r="D129" s="13"/>
-      <c r="E129" s="20" t="s">
+      <c r="H138" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="I138" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B139" s="13"/>
+      <c r="C139" s="31"/>
+      <c r="D139" s="13"/>
+      <c r="E139" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="F129" s="40" t="s">
+      <c r="F139" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="G129" s="20" t="s">
+      <c r="G139" s="19" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A130" s="13"/>
-      <c r="B130" s="13"/>
-      <c r="C130" s="32"/>
-      <c r="D130" s="13"/>
-      <c r="E130" s="20" t="s">
+      <c r="H139" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="I139" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="B140" s="13"/>
+      <c r="C140" s="31"/>
+      <c r="D140" s="13"/>
+      <c r="E140" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="F130" s="40" t="s">
+      <c r="F140" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="G130" s="20" t="s">
+      <c r="G140" s="19" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="E131" s="20" t="s">
+      <c r="H140" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="I140" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E141" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="F131" s="17" t="s">
+      <c r="F141" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="G131" s="20" t="s">
+      <c r="G141" s="19" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="E132" s="20" t="s">
+      <c r="H141" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="I141" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E142" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="F132" s="17" t="s">
+      <c r="F142" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="G132" s="20" t="s">
+      <c r="G142" s="19" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E133" s="9" t="s">
+      <c r="H142" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="I142" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E143" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F143" t="s">
         <v>167</v>
       </c>
-      <c r="G133" s="39" t="s">
+      <c r="G143" s="38" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E134" s="9" t="s">
+      <c r="H143" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="I143" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E144" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="F134" s="34" t="s">
+      <c r="F144" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="G134" s="9" t="s">
+      <c r="G144" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="H134" s="9"/>
-    </row>
-    <row r="136" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>171</v>
-      </c>
-      <c r="B136" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="C136" s="32">
-        <v>10</v>
-      </c>
-      <c r="D136" s="13" t="s">
+      <c r="H144" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="I144" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="E145" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F145" s="34">
+        <v>91</v>
+      </c>
+      <c r="G145" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="H145" t="s">
+        <v>109</v>
+      </c>
+      <c r="I145" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="E146" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="F146" s="16">
+        <v>70108942</v>
+      </c>
+      <c r="G146" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="H146" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="I146" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="E147" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="F147" s="16">
+        <v>7010894262</v>
+      </c>
+      <c r="G147" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="I147" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>177</v>
+      </c>
+      <c r="B148" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="C148" s="31">
+        <v>11</v>
+      </c>
+      <c r="D148" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E136" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F136" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G136" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B137" s="13"/>
-      <c r="C137" s="32"/>
-      <c r="D137" s="13"/>
-      <c r="E137" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="F137" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="G137" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B138" s="13"/>
-      <c r="C138" s="32"/>
-      <c r="D138" s="13"/>
-      <c r="E138" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="F138" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="G138" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B139" s="10"/>
-      <c r="C139" s="17"/>
-      <c r="D139" s="10"/>
-      <c r="E139" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F139" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="G139" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B140" s="13"/>
-      <c r="C140" s="32"/>
-      <c r="D140" s="13"/>
-      <c r="E140" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="F140" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="G140" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="B141" s="13"/>
-      <c r="C141" s="32"/>
-      <c r="D141" s="13"/>
-      <c r="E141" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="F141" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="G141" s="20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="E142" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="F142" s="17" t="s">
+      <c r="E148" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="F148" t="s">
+        <v>123</v>
+      </c>
+      <c r="G148" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="H148" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="I148" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E149" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="F149" t="s">
+        <v>181</v>
+      </c>
+      <c r="G149" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="H149" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="I149" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E150" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="F150" t="s">
+        <v>184</v>
+      </c>
+      <c r="G150" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="H150" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="I150" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E151" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="F151" t="s">
+        <v>184</v>
+      </c>
+      <c r="G151" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="H151" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="I151" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E152" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="F152" s="49">
+        <v>37897</v>
+      </c>
+      <c r="G152" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="H152" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="I152" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E153" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="F153" t="s">
+        <v>191</v>
+      </c>
+      <c r="G153" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="H153" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="I153" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E154" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="F154" t="s">
         <v>71</v>
       </c>
-      <c r="G142" s="20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="E143" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="F143" s="17" t="s">
+      <c r="G154" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="H154" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="I154" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E155" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="F155" t="s">
         <v>72</v>
       </c>
-      <c r="G143" s="20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E144" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F144" t="s">
-        <v>167</v>
-      </c>
-      <c r="G144" s="39" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E145" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="F145" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="G145" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="H145" s="9"/>
-    </row>
-    <row r="146" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="E146" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="F146" s="35">
-        <v>91</v>
-      </c>
-      <c r="G146" s="20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="E147" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="F147" s="17">
-        <v>70108942</v>
-      </c>
-      <c r="G147" s="20" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="E148" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="F148" s="17">
-        <v>7010894262</v>
-      </c>
-      <c r="G148" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>176</v>
-      </c>
-      <c r="B150" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="C150" s="32">
-        <v>10</v>
-      </c>
-      <c r="D150" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E150" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F150" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G150" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B151" s="13"/>
-      <c r="C151" s="32"/>
-      <c r="D151" s="13"/>
-      <c r="E151" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="F151" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="G151" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B152" s="13"/>
-      <c r="C152" s="32"/>
-      <c r="D152" s="13"/>
-      <c r="E152" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="F152" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="G152" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B153" s="10"/>
-      <c r="C153" s="17"/>
-      <c r="D153" s="10"/>
-      <c r="E153" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F153" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="G153" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B154" s="13"/>
-      <c r="C154" s="32"/>
-      <c r="D154" s="13"/>
-      <c r="E154" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="F154" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="G154" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="B155" s="13"/>
-      <c r="C155" s="32"/>
-      <c r="D155" s="13"/>
-      <c r="E155" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="F155" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="G155" s="20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="E156" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="F156" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="G156" s="20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="E157" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="F157" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="G157" s="20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E158" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F158" t="s">
-        <v>167</v>
-      </c>
-      <c r="G158" s="39" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E159" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="F159" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="G159" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="E160" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="F160" s="35">
-        <v>91</v>
-      </c>
-      <c r="G160" s="20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="E161" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="F161" s="17">
-        <v>70108942</v>
-      </c>
-      <c r="G161" s="20" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="E162" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="F162" s="17">
-        <v>7010894262</v>
-      </c>
-      <c r="G162" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>177</v>
-      </c>
-      <c r="B164" s="48" t="s">
-        <v>211</v>
-      </c>
-      <c r="C164" s="32">
-        <v>11</v>
-      </c>
-      <c r="D164" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E164" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="F164" t="s">
-        <v>123</v>
-      </c>
-      <c r="G164" s="39" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E165" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="F165" t="s">
+      <c r="G155" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="H155" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="I155" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E156" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="F156" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="G165" s="39" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E166" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="F166" t="s">
-        <v>184</v>
-      </c>
-      <c r="G166" s="39" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E167" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="F167" t="s">
-        <v>184</v>
-      </c>
-      <c r="G167" s="39" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E168" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="F168" s="51">
-        <v>37897</v>
-      </c>
-      <c r="G168" s="39" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E169" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="F169" t="s">
-        <v>191</v>
-      </c>
-      <c r="G169" s="39" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E170" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="F170" t="s">
-        <v>71</v>
-      </c>
-      <c r="G170" s="39" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E171" s="39" t="s">
-        <v>195</v>
-      </c>
-      <c r="F171" t="s">
-        <v>72</v>
-      </c>
-      <c r="G171" s="39" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E172" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="F172" t="s">
-        <v>181</v>
-      </c>
-      <c r="G172" s="39" t="s">
+      <c r="G156" s="38" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E173" s="39" t="s">
+      <c r="H156" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="I156" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E157" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="F173">
+      <c r="F157">
         <v>9876543210</v>
       </c>
-      <c r="G173" s="39" t="s">
+      <c r="G157" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="H157" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="I157" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E158" s="38" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E174" s="39" t="s">
+      <c r="G158" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="G174" s="39" t="s">
+      <c r="H158" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="I158" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E159" s="38" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E175" s="39" t="s">
+      <c r="G159" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="G175" s="39" t="s">
+      <c r="H159" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="I159" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E160" s="38" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E176" s="39" t="s">
+      <c r="G160" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="H160" t="s">
+        <v>223</v>
+      </c>
+      <c r="I160" s="66" t="s">
+        <v>244</v>
+      </c>
+      <c r="J160" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="161" spans="3:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E161" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="G176" s="39" t="s">
+      <c r="G161" s="38" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E177" s="39" t="s">
+      <c r="H161" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="I161" s="67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="162" spans="3:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E162" s="38" t="s">
         <v>207</v>
       </c>
-      <c r="G177" s="39" t="s">
+      <c r="F162" t="s">
+        <v>76</v>
+      </c>
+      <c r="G162" s="38" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E178" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="F178" t="s">
-        <v>76</v>
-      </c>
-      <c r="G178" s="39" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
-        <v>212</v>
-      </c>
-      <c r="B180" s="48" t="s">
-        <v>213</v>
-      </c>
-      <c r="C180" s="32">
-        <v>12</v>
-      </c>
-      <c r="D180" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E180" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="F180" t="s">
-        <v>123</v>
-      </c>
-      <c r="G180" s="39" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E181" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="F181" t="s">
-        <v>181</v>
-      </c>
-      <c r="G181" s="39" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E182" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="F182" t="s">
-        <v>184</v>
-      </c>
-      <c r="G182" s="39" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E183" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="F183" t="s">
-        <v>184</v>
-      </c>
-      <c r="G183" s="39" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E184" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="F184" s="51">
-        <v>37897</v>
-      </c>
-      <c r="G184" s="39" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E185" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="F185" t="s">
-        <v>191</v>
-      </c>
-      <c r="G185" s="39" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E186" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="F186" t="s">
-        <v>71</v>
-      </c>
-      <c r="G186" s="39" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E187" s="39" t="s">
-        <v>195</v>
-      </c>
-      <c r="F187" t="s">
-        <v>72</v>
-      </c>
-      <c r="G187" s="39" t="s">
-        <v>196</v>
-      </c>
+      <c r="H162" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="I162" s="66" t="s">
+        <v>244</v>
+      </c>
+      <c r="J162" s="68" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="164" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C164"/>
+      <c r="E164"/>
+      <c r="G164"/>
+    </row>
+    <row r="165" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C165"/>
+      <c r="E165"/>
+      <c r="G165"/>
+    </row>
+    <row r="166" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C166"/>
+      <c r="E166"/>
+      <c r="G166"/>
+    </row>
+    <row r="167" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C167"/>
+      <c r="E167"/>
+      <c r="G167"/>
+    </row>
+    <row r="168" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C168"/>
+      <c r="E168"/>
+      <c r="G168"/>
+    </row>
+    <row r="169" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C169"/>
+      <c r="E169"/>
+      <c r="G169"/>
+    </row>
+    <row r="170" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C170"/>
+      <c r="E170"/>
+      <c r="G170"/>
+    </row>
+    <row r="171" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C171"/>
+      <c r="E171"/>
+      <c r="G171"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5480,42 +6480,61 @@
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="C4:D4"/>
   </mergeCells>
+  <conditionalFormatting sqref="I9:I162">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH("pass",I9)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH("pass",I9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F12" r:id="rId1" xr:uid="{992D4162-70AB-42A2-B94B-1DB8B3BA88E2}"/>
-    <hyperlink ref="F13" r:id="rId2" xr:uid="{8E396E48-49FD-43A5-8BDD-871BC502A186}"/>
-    <hyperlink ref="F18" r:id="rId3" xr:uid="{4EF0A29C-F414-4B07-BF49-5FE69B387F23}"/>
-    <hyperlink ref="F44" r:id="rId4" xr:uid="{84F22899-CBF1-41C9-89B2-FA4E692BABBA}"/>
-    <hyperlink ref="F45" r:id="rId5" xr:uid="{7A50CCB4-A03E-4BDC-8D9D-1A1955729A0F}"/>
-    <hyperlink ref="F50" r:id="rId6" xr:uid="{32BAC1B2-0B16-428C-896C-D3BD19E21CF2}"/>
-    <hyperlink ref="F27" r:id="rId7" xr:uid="{A1F18C7B-1E04-4DD1-8935-F7AC58DC4A39}"/>
-    <hyperlink ref="F28" r:id="rId8" xr:uid="{FE0CD585-FF1B-4F50-AFFF-298942B8D252}"/>
-    <hyperlink ref="F59" r:id="rId9" xr:uid="{6176B2E9-4301-4A58-B0CD-B0CAC23E8296}"/>
-    <hyperlink ref="F60" r:id="rId10" xr:uid="{8A3A5B26-5BF1-4C45-B480-69E3EA443B47}"/>
-    <hyperlink ref="F76" r:id="rId11" xr:uid="{34A6E51E-C873-491B-84F5-0023FCF77322}"/>
-    <hyperlink ref="F85" r:id="rId12" xr:uid="{D88ACAC1-5B75-4157-B2C7-3A95BA2F4FD6}"/>
-    <hyperlink ref="F84" r:id="rId13" xr:uid="{90E53368-699D-4DEF-8CFF-096712DDF608}"/>
-    <hyperlink ref="F89" r:id="rId14" xr:uid="{C14A0AE4-6783-43FD-B628-4873FFB2E658}"/>
-    <hyperlink ref="F91" r:id="rId15" xr:uid="{F830E219-85CF-464A-B73B-05A06D23B15A}"/>
-    <hyperlink ref="F95" r:id="rId16" xr:uid="{E651C91E-E94E-43AC-A4BE-83D219C39592}"/>
-    <hyperlink ref="F96" r:id="rId17" xr:uid="{343A880A-1031-4B55-9F6B-C18E2FD1D5E8}"/>
-    <hyperlink ref="F103" r:id="rId18" xr:uid="{C706B159-B8A8-4B4F-8202-A92287252B0D}"/>
-    <hyperlink ref="F104" r:id="rId19" xr:uid="{DED90097-9292-4D52-BAEA-1F514FB301EA}"/>
-    <hyperlink ref="F110" r:id="rId20" xr:uid="{08A11C86-9AA2-4474-B97D-989CE45B02D9}"/>
-    <hyperlink ref="F111" r:id="rId21" xr:uid="{48BDA00C-F185-421F-9045-4CA6789A811D}"/>
-    <hyperlink ref="F118" r:id="rId22" xr:uid="{AD69A673-52C8-4755-82A4-70562508B0C7}"/>
-    <hyperlink ref="F119" r:id="rId23" xr:uid="{EFC362DF-3DDF-48D7-8ED1-653EB911ADA1}"/>
-    <hyperlink ref="F127" r:id="rId24" xr:uid="{BE4F979F-FCA9-4C6B-84EB-8D9FED17471D}"/>
-    <hyperlink ref="F128" r:id="rId25" xr:uid="{B9516A32-E38C-4493-BF5A-890C28A75AD3}"/>
-    <hyperlink ref="F134" r:id="rId26" xr:uid="{54815475-4E5B-4619-BDE1-43CEA571B043}"/>
-    <hyperlink ref="F138" r:id="rId27" xr:uid="{5C76CC7A-8558-42D8-A5F3-491391C75466}"/>
-    <hyperlink ref="F139" r:id="rId28" xr:uid="{F0E0C057-DD52-4C72-9A89-3CCE8A81DB4E}"/>
-    <hyperlink ref="F145" r:id="rId29" xr:uid="{DE07486C-D088-4196-B5FD-48ABAA7E4BB0}"/>
-    <hyperlink ref="F152" r:id="rId30" xr:uid="{A4B26F7F-0543-48EC-B7FD-90202D8B068A}"/>
-    <hyperlink ref="F153" r:id="rId31" xr:uid="{5099A6B5-0C58-4155-866C-55A94E081E97}"/>
-    <hyperlink ref="F159" r:id="rId32" xr:uid="{4DB49D00-BDF3-4DC0-9A5C-5D6BABEABDDA}"/>
+    <hyperlink ref="F11" r:id="rId1" xr:uid="{992D4162-70AB-42A2-B94B-1DB8B3BA88E2}"/>
+    <hyperlink ref="F12" r:id="rId2" xr:uid="{8E396E48-49FD-43A5-8BDD-871BC502A186}"/>
+    <hyperlink ref="F17" r:id="rId3" xr:uid="{4EF0A29C-F414-4B07-BF49-5FE69B387F23}"/>
+    <hyperlink ref="F41" r:id="rId4" xr:uid="{84F22899-CBF1-41C9-89B2-FA4E692BABBA}"/>
+    <hyperlink ref="F42" r:id="rId5" xr:uid="{7A50CCB4-A03E-4BDC-8D9D-1A1955729A0F}"/>
+    <hyperlink ref="F47" r:id="rId6" xr:uid="{32BAC1B2-0B16-428C-896C-D3BD19E21CF2}"/>
+    <hyperlink ref="F26" r:id="rId7" xr:uid="{FE0CD585-FF1B-4F50-AFFF-298942B8D252}"/>
+    <hyperlink ref="F55" r:id="rId8" xr:uid="{6176B2E9-4301-4A58-B0CD-B0CAC23E8296}"/>
+    <hyperlink ref="F56" r:id="rId9" xr:uid="{8A3A5B26-5BF1-4C45-B480-69E3EA443B47}"/>
+    <hyperlink ref="F71" r:id="rId10" xr:uid="{34A6E51E-C873-491B-84F5-0023FCF77322}"/>
+    <hyperlink ref="F78" r:id="rId11" xr:uid="{D88ACAC1-5B75-4157-B2C7-3A95BA2F4FD6}"/>
+    <hyperlink ref="F77" r:id="rId12" xr:uid="{90E53368-699D-4DEF-8CFF-096712DDF608}"/>
+    <hyperlink ref="F81" r:id="rId13" xr:uid="{C14A0AE4-6783-43FD-B628-4873FFB2E658}"/>
+    <hyperlink ref="F83" r:id="rId14" xr:uid="{F830E219-85CF-464A-B73B-05A06D23B15A}"/>
+    <hyperlink ref="F86" r:id="rId15" xr:uid="{E651C91E-E94E-43AC-A4BE-83D219C39592}"/>
+    <hyperlink ref="F87" r:id="rId16" xr:uid="{343A880A-1031-4B55-9F6B-C18E2FD1D5E8}"/>
+    <hyperlink ref="F93" r:id="rId17" xr:uid="{C706B159-B8A8-4B4F-8202-A92287252B0D}"/>
+    <hyperlink ref="F94" r:id="rId18" xr:uid="{DED90097-9292-4D52-BAEA-1F514FB301EA}"/>
+    <hyperlink ref="F99" r:id="rId19" xr:uid="{08A11C86-9AA2-4474-B97D-989CE45B02D9}"/>
+    <hyperlink ref="F100" r:id="rId20" xr:uid="{48BDA00C-F185-421F-9045-4CA6789A811D}"/>
+    <hyperlink ref="F106" r:id="rId21" xr:uid="{AD69A673-52C8-4755-82A4-70562508B0C7}"/>
+    <hyperlink ref="F107" r:id="rId22" xr:uid="{EFC362DF-3DDF-48D7-8ED1-653EB911ADA1}"/>
+    <hyperlink ref="F114" r:id="rId23" xr:uid="{BE4F979F-FCA9-4C6B-84EB-8D9FED17471D}"/>
+    <hyperlink ref="F115" r:id="rId24" xr:uid="{B9516A32-E38C-4493-BF5A-890C28A75AD3}"/>
+    <hyperlink ref="F121" r:id="rId25" xr:uid="{54815475-4E5B-4619-BDE1-43CEA571B043}"/>
+    <hyperlink ref="F124" r:id="rId26" xr:uid="{5C76CC7A-8558-42D8-A5F3-491391C75466}"/>
+    <hyperlink ref="F125" r:id="rId27" xr:uid="{F0E0C057-DD52-4C72-9A89-3CCE8A81DB4E}"/>
+    <hyperlink ref="F131" r:id="rId28" xr:uid="{DE07486C-D088-4196-B5FD-48ABAA7E4BB0}"/>
+    <hyperlink ref="F137" r:id="rId29" xr:uid="{A4B26F7F-0543-48EC-B7FD-90202D8B068A}"/>
+    <hyperlink ref="F138" r:id="rId30" xr:uid="{5099A6B5-0C58-4155-866C-55A94E081E97}"/>
+    <hyperlink ref="F144" r:id="rId31" xr:uid="{4DB49D00-BDF3-4DC0-9A5C-5D6BABEABDDA}"/>
+    <hyperlink ref="F25" r:id="rId32" xr:uid="{A1F18C7B-1E04-4DD1-8935-F7AC58DC4A39}"/>
+    <hyperlink ref="F156" r:id="rId33" xr:uid="{E4D7CE66-13B2-438B-8FF6-4E4A73BA2C85}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId33"/>
+  <pageSetup orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>
 
@@ -5523,8 +6542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C9D068-D540-454C-8DE6-9D8144402BBF}">
   <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6492,34 +7511,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:12" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="B3" s="58"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
     </row>
     <row r="4" spans="1:12" ht="25.8" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="61"/>
+      <c r="C4" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="59"/>
       <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
@@ -6529,7 +7550,9 @@
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
@@ -6538,8 +7561,8 @@
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="64"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
       <c r="E6" s="1"/>
       <c r="F6" s="12"/>
     </row>
@@ -6584,295 +7607,531 @@
       <c r="K9" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="25" t="s">
+      <c r="L9" s="24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
+    <row r="10" spans="1:12" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="B10" t="s">
+        <v>223</v>
+      </c>
       <c r="C10" s="13"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
+      <c r="D10" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="E10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
     </row>
     <row r="11" spans="1:12" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
+      <c r="D11" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="E11" t="s">
+        <v>181</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
     </row>
     <row r="12" spans="1:12" s="9" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
+      <c r="D12" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="E12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
     </row>
     <row r="13" spans="1:12" s="9" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-    </row>
-    <row r="14" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="E13" t="s">
+        <v>184</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+    </row>
+    <row r="14" spans="1:12" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="21"/>
-      <c r="G14" s="21"/>
+      <c r="D14" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="E14" s="49">
+        <v>37897</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="15" spans="1:12" s="9" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="E15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="E16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="13"/>
-    </row>
-    <row r="18" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D17" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="E17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D18" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="E18" s="65" t="s">
+        <v>181</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D19" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="E19">
+        <v>9876543210</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="13"/>
+      <c r="D21" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="E21"/>
+      <c r="F21" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="G21" s="38" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="22" spans="1:7" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="21"/>
-      <c r="G22" s="21"/>
+      <c r="D22" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="G22" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="23" spans="1:7" s="9" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-    </row>
-    <row r="24" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="G23" s="38" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-    </row>
-    <row r="25" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
+      <c r="D24" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="E24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="G24" s="38" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>225</v>
+      </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="D25" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="E25" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="G25" s="38" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="26" spans="1:7" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-    </row>
-    <row r="27" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="E26" t="s">
+        <v>181</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="G26" s="38" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-    </row>
-    <row r="28" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="E27" t="s">
+        <v>184</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="G27" s="38" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-    </row>
-    <row r="29" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="E28" t="s">
+        <v>184</v>
+      </c>
+      <c r="F28" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="G28" s="38" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="D29" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="E29" s="49">
+        <v>37897</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="G29" s="38" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="30" spans="1:7" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="21"/>
-      <c r="G30" s="21"/>
-    </row>
-    <row r="31" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="E30" t="s">
+        <v>191</v>
+      </c>
+      <c r="F30" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="G30" s="38" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="13"/>
-    </row>
-    <row r="32" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="E31" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="G31" s="38" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="13"/>
-    </row>
-    <row r="33" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="E32" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="G32" s="38" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="13"/>
-    </row>
-    <row r="34" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="E33" s="65" t="s">
+        <v>181</v>
+      </c>
+      <c r="F33" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="G33" s="38" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="13"/>
+      <c r="D34" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="E34">
+        <v>9876543210</v>
+      </c>
+      <c r="F34" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="G34" s="38" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="35" spans="1:7" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="21"/>
-      <c r="G35" s="21"/>
+      <c r="D35" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="E35"/>
+      <c r="F35" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="G35" s="38" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="36" spans="1:7" s="9" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="13"/>
-    </row>
-    <row r="37" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="E36"/>
+      <c r="F36" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="G36" s="38" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="13"/>
-    </row>
-    <row r="38" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="E37"/>
+      <c r="F37" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="G37" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="13"/>
-    </row>
-    <row r="39" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D38" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="E38"/>
+      <c r="F38" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="G38" s="38" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="13"/>
+      <c r="D39" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="G39" s="38" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="40" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13"/>
@@ -6887,8 +8146,8 @@
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
-      <c r="E41" s="21"/>
-      <c r="G41" s="21"/>
+      <c r="E41" s="20"/>
+      <c r="G41" s="20"/>
     </row>
     <row r="42" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13"/>
@@ -6896,7 +8155,7 @@
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
-      <c r="F42" s="17"/>
+      <c r="F42" s="16"/>
       <c r="G42" s="13"/>
     </row>
     <row r="43" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -6905,7 +8164,7 @@
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
-      <c r="F43" s="17"/>
+      <c r="F43" s="16"/>
       <c r="G43" s="13"/>
     </row>
     <row r="44" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -6914,7 +8173,7 @@
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
-      <c r="F44" s="18"/>
+      <c r="F44" s="17"/>
       <c r="G44" s="13"/>
     </row>
     <row r="45" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -6923,7 +8182,7 @@
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
-      <c r="F45" s="23"/>
+      <c r="F45" s="22"/>
       <c r="G45" s="13"/>
     </row>
     <row r="46" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -6932,7 +8191,7 @@
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
-      <c r="F46" s="22"/>
+      <c r="F46" s="21"/>
       <c r="G46" s="13"/>
     </row>
     <row r="47" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -6940,8 +8199,8 @@
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="22"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="21"/>
       <c r="G47" s="13"/>
     </row>
     <row r="48" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -6949,7 +8208,7 @@
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
-      <c r="E48" s="16"/>
+      <c r="E48" s="15"/>
       <c r="G48" s="13"/>
     </row>
     <row r="49" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -6957,7 +8216,7 @@
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
-      <c r="E49" s="16"/>
+      <c r="E49" s="15"/>
       <c r="G49" s="13"/>
     </row>
     <row r="50" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -6965,8 +8224,8 @@
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="22"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="21"/>
       <c r="G50" s="13"/>
     </row>
     <row r="51" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -6974,8 +8233,8 @@
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="22"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="21"/>
       <c r="G51" s="13"/>
     </row>
     <row r="52" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -6983,7 +8242,7 @@
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
-      <c r="E52" s="16"/>
+      <c r="E52" s="15"/>
       <c r="G52" s="13"/>
     </row>
     <row r="53" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -6991,7 +8250,7 @@
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
-      <c r="E53" s="16"/>
+      <c r="E53" s="15"/>
       <c r="G53" s="13"/>
     </row>
     <row r="54" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -6999,8 +8258,8 @@
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="22"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="21"/>
       <c r="G54" s="13"/>
     </row>
     <row r="55" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -7008,8 +8267,8 @@
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="22"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="21"/>
       <c r="G55" s="13"/>
     </row>
     <row r="56" spans="1:7" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
@@ -7017,8 +8276,8 @@
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
-      <c r="E56" s="21"/>
-      <c r="G56" s="21"/>
+      <c r="E56" s="20"/>
+      <c r="G56" s="20"/>
     </row>
     <row r="57" spans="1:7" s="9" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="13"/>
@@ -7026,7 +8285,7 @@
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
       <c r="E57" s="13"/>
-      <c r="F57" s="17"/>
+      <c r="F57" s="16"/>
       <c r="G57" s="13"/>
     </row>
     <row r="58" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -7035,7 +8294,7 @@
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="13"/>
-      <c r="F58" s="17"/>
+      <c r="F58" s="16"/>
       <c r="G58" s="13"/>
     </row>
     <row r="59" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -7044,7 +8303,7 @@
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
       <c r="E59" s="13"/>
-      <c r="F59" s="18"/>
+      <c r="F59" s="17"/>
       <c r="G59" s="13"/>
     </row>
     <row r="60" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -7053,7 +8312,7 @@
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
       <c r="E60" s="13"/>
-      <c r="F60" s="22"/>
+      <c r="F60" s="21"/>
       <c r="G60" s="13"/>
     </row>
     <row r="61" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -7062,7 +8321,7 @@
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
       <c r="E61" s="13"/>
-      <c r="F61" s="22"/>
+      <c r="F61" s="21"/>
       <c r="G61" s="13"/>
     </row>
     <row r="62" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -7071,7 +8330,7 @@
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="E62" s="13"/>
-      <c r="F62" s="22"/>
+      <c r="F62" s="21"/>
       <c r="G62" s="13"/>
     </row>
     <row r="63" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -7080,7 +8339,7 @@
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
       <c r="E63" s="13"/>
-      <c r="F63" s="19"/>
+      <c r="F63" s="18"/>
       <c r="G63" s="13"/>
     </row>
     <row r="64" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -7088,8 +8347,8 @@
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="17"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="16"/>
       <c r="G64" s="13"/>
     </row>
     <row r="65" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -7097,8 +8356,8 @@
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
       <c r="G65" s="13"/>
     </row>
     <row r="66" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -7106,8 +8365,8 @@
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="17"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="16"/>
       <c r="G66" s="13"/>
     </row>
     <row r="67" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -7115,8 +8374,8 @@
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
       <c r="G67" s="13"/>
     </row>
     <row r="68" spans="1:7" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
@@ -7124,8 +8383,8 @@
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
-      <c r="E68" s="21"/>
-      <c r="G68" s="21"/>
+      <c r="E68" s="20"/>
+      <c r="G68" s="20"/>
     </row>
     <row r="69" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="70" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -7148,8 +8407,12 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C6:D6"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E18" r:id="rId1" xr:uid="{C64D1DB1-D14B-4EAB-94ED-C4D74B1152CC}"/>
+    <hyperlink ref="E33" r:id="rId2" xr:uid="{676328EE-4CE7-4B08-9389-14B1E9F4C3E5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -7158,7 +8421,7 @@
   <dimension ref="B4:G32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7614,37 +8877,39 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
     </row>
     <row r="6" spans="2:7" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="65"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="63"/>
     </row>
     <row r="7" spans="2:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="61"/>
+      <c r="C7" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="59"/>
       <c r="E7" s="1" t="s">
         <v>2</v>
       </c>
@@ -7655,7 +8920,9 @@
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="1" t="s">
         <v>4</v>
@@ -7664,12 +8931,12 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="63"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="64"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="62"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
@@ -7692,99 +8959,197 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="B11" s="70" t="s">
+        <v>250</v>
+      </c>
+      <c r="C11" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="69" t="s">
+        <v>251</v>
+      </c>
+      <c r="F11" s="69"/>
       <c r="G11" s="9"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="10"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="B12" s="70" t="s">
+        <v>252</v>
+      </c>
+      <c r="C12" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="69" t="s">
+        <v>251</v>
+      </c>
+      <c r="F12" s="69"/>
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="10"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="B13" s="70" t="s">
+        <v>253</v>
+      </c>
+      <c r="C13" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="69" t="s">
+        <v>251</v>
+      </c>
+      <c r="F13" s="69"/>
       <c r="G13" s="9"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="10"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="B14" s="70" t="s">
+        <v>254</v>
+      </c>
+      <c r="C14" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="69" t="s">
+        <v>251</v>
+      </c>
+      <c r="F14" s="69"/>
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="10"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="B15" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="C15" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="69" t="s">
+        <v>251</v>
+      </c>
+      <c r="F15" s="69"/>
       <c r="G15" s="9"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="10"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="B16" s="70" t="s">
+        <v>256</v>
+      </c>
+      <c r="C16" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="69" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" s="69" t="s">
+        <v>251</v>
+      </c>
+      <c r="F16" s="69"/>
       <c r="G16" s="9"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="10"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="B17" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C17" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="69" t="s">
+        <v>251</v>
+      </c>
+      <c r="F17" s="69"/>
       <c r="G17" s="9"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="10"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="B18" s="70" t="s">
+        <v>258</v>
+      </c>
+      <c r="C18" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18" s="69" t="s">
+        <v>251</v>
+      </c>
+      <c r="F18" s="69"/>
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="10"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="B19" s="70" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="69" t="s">
+        <v>251</v>
+      </c>
+      <c r="F19" s="69"/>
       <c r="G19" s="9"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+      <c r="B20" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="C20" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="69" t="s">
+        <v>156</v>
+      </c>
+      <c r="E20" s="69" t="s">
+        <v>251</v>
+      </c>
+      <c r="F20" s="69"/>
       <c r="G20" s="9"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="B21" s="70" t="s">
+        <v>261</v>
+      </c>
+      <c r="C21" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="69" t="s">
+        <v>159</v>
+      </c>
+      <c r="E21" s="69" t="s">
+        <v>251</v>
+      </c>
+      <c r="F21" s="69"/>
       <c r="G21" s="9"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+      <c r="B22" s="70" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="E22" s="69" t="s">
+        <v>263</v>
+      </c>
+      <c r="F22" s="69" t="s">
+        <v>248</v>
+      </c>
       <c r="G22" s="9"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
